--- a/chapter 3/Subtotals.xlsx
+++ b/chapter 3/Subtotals.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10909"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Writing\Lynda\Excel 2019 Intro to F&amp;Fs\Exercise Files\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_vlookups/chapter 3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AB5954-B734-47EA-B4DA-3BBCBEA92F8D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D1CEAC1-7BD4-A344-8239-5ECD7E32D7A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="9375" windowHeight="9915" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="460" windowWidth="25120" windowHeight="11880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Year</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>Revenue</t>
+  </si>
+  <si>
+    <t>2017 Total</t>
+  </si>
+  <si>
+    <t>2018 Total</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -39,7 +48,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +66,14 @@
     <font>
       <b/>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -84,12 +101,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -429,19 +448,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -463,7 +482,7 @@
         <v>517756</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2017</v>
       </c>
@@ -474,7 +493,7 @@
         <v>350063</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -485,7 +504,7 @@
         <v>290795</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2017</v>
       </c>
@@ -496,48 +515,75 @@
         <v>441828</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2018</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+    <row r="6" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="2">
-        <v>278909</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+        <f>SUBTOTAL(9,C2:C5)</f>
+        <v>1600442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2018</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>227037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>278909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2018</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2">
-        <v>428781</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>227037</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2018</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>428781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2018</v>
+      </c>
+      <c r="B10">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C10" s="2">
         <v>372580</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <f>SUBTOTAL(9,C7:C10)</f>
+        <v>1307307</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2">
+        <f>SUBTOTAL(9,C2:C10)</f>
+        <v>2907749</v>
       </c>
     </row>
   </sheetData>
